--- a/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1455,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,17 +1467,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1486,13 +1507,747 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,1001 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>590002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮核心成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0376</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮核心优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6626</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5142</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003857</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4996</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>590005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮核心主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2799</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2143</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2100</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1308</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001152</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通新区域新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.98</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0849</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001601</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鑫元鑫新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002224</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮绝对收益策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>59.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005175</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002212</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实新起航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003513</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>54.24</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>62.02</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>诺安优化配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>73.48</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001602</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鑫元鑫新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2194,64 +1258,1000 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.93</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600975-新五丰.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.93</v>
       </c>
     </row>
@@ -515,6 +532,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1252,7 +1931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
